--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -521,19 +521,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Eczane Yıldız</t>
+          <t>Bahariye Cadde Eczanesi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>
-+90 543 842 68 58</t>
++90 216 550 53 02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>
-Mecidiye Mahallesi, Ortaköy, Muvakkit Sk. No:10/A, 34347 Beşiktaş/İstanbul, Türkiye</t>
+Osmanağa, Gen. Asım Gündüz Caddesi No:17/C, 34734 Kadıköy/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -550,19 +550,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bahariye Cadde Eczanesi</t>
+          <t>İstanbul Eczanesi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>
-+90 216 550 53 02</t>
++90 212 621 92 27</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>
-Osmanağa, Gen. Asım Gündüz Caddesi No:17/C, 34734 Kadıköy/İstanbul, Türkiye</t>
+Hırka-i Şerif, Kocasinan Cd. no: 90, 34091 Fatih/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -579,19 +579,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Colpan Pharmacy</t>
+          <t>Eczane Yıldız</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>
-+90 212 523 56 63</t>
++90 543 842 68 58</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>
-Akşemsettin, 34091 Fatih/İstanbul, Türkiye</t>
+Mecidiye Mahallesi, Ortaköy, Muvakkit Sk. No:10/A, 34347 Beşiktaş/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -608,19 +608,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>İstanbul Eczanesi</t>
+          <t>Colpan Pharmacy</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>
-+90 212 621 92 27</t>
++90 212 523 56 63</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>
-Hırka-i Şerif, Kocasinan Cd. no: 90, 34091 Fatih/İstanbul, Türkiye</t>
+Akşemsettin, 34091 Fatih/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -666,19 +666,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>İstanbul Havalimanı Eczane Melike Sultan</t>
+          <t>Istanbul Airport Pharmacy</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>
-+90 530 283 10 10</t>
++90 212 830 35 57</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>
-İstanbul AIRPORT Havalimanı Dış Hatlar Gelen Katı No:820540, İmrahor, 34283 Arnavutköy/İstanbul, Türkiye</t>
+Tayakadın Mah. İstanbul Yeni Havalimanı Giden Yolcu Katı NO: 7-F-0401, 34277 Arnavutköy/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -695,19 +695,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Istanbul Airport Pharmacy</t>
+          <t>İstanbul Havalimanı Eczane Melike Sultan</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>
-+90 212 830 35 57</t>
++90 530 283 10 10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>
-Tayakadın Mah. İstanbul Yeni Havalimanı Giden Yolcu Katı NO: 7-F-0401, 34277 Arnavutköy/İstanbul, Türkiye</t>
+İstanbul AIRPORT Havalimanı Dış Hatlar Gelen Katı No:820540, İmrahor, 34283 Arnavutköy/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -724,17 +724,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Eczapaketim</t>
+          <t>Enes Eczanesi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Yok</t>
+          <t>
++90 530 283 10 10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yok</t>
+          <t>
+İstanbul AIRPORT Havalimanı Dış Hatlar Gelen Katı No:820540, İmrahor, 34283 Arnavutköy/İstanbul, Türkiye</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">

--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,2937 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>İşletme Adı</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Telefon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Adres</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Bölge</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tarih</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Demir Eczanesi</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>
++90 212 685 16 61</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>
+Akşemseddin, Doğan Araslı Blv. No:8, 34925 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Eczane İstanbul</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>
++90 212 672 33 30</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>
+Aşık Veysel, Süleyman Demirel Cd. No:15, 34000 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ARI ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>
++90 507 290 02 34</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>
+Yeşilkent, Hacı Bayram Veli Cd NO:56/A, 34515 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ayışığı Eczanesi Esenyurt</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>
++90 212 852 66 61</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>
+Ayışığı Halting Sitesi, Barbaros Hayrettin Paşa, 2299. Sk No:13/6, 34522 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ESENKENT ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>
++90 212 401 07 57</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>
+Aşık Veysel mah. Atatürk Bul. No:18j/14 Parkcity Evleri, 34510 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Serhan Eczanesi</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>
+Sultaniye, Aşık Şenlik Cd. 4 A, 34510 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Eczane İyi Yaşam</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>
++90 212 853 34 00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>
+Piri Reis, Nazım Hikmet Blv. No:70 D:C, 34151 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bulut Eczanesi</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>
++90 539 564 87 22</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>
+Yeşilkent, Nazım Hikmet Blv. No:49D, 34515 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Yeni Hayat Eczanesi</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>
++90 212 530 11 71</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>
+Hürriyet, Albatros Sk. 37/A, 34522 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Göksu Eczanesi</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>
++90 212 596 46 06</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>
+devlet hastanesi karşısı, Pınar, 19 Mayıs Blv. 58/A, 34517 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ekin Eczanesi</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>
++90 212 450 31 92</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>
+Fatih, 19 Mayıs Blv. No: 61/D, 34513 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mutlu Eczanesi</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>
++90 212 877 28 28</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>
+Sultaniye Mah. Balıkyolu Cad. Zuanka Residance, No:5/D, 34510 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Lotus Eczanesi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>
++90 212 596 10 46</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>
+Örnek, Fikri Sönmez Cd. No:23/A, 34517 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>İNCİRTEPE ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>
++90 212 450 16 00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>
+İncirtepe, Okurlar Cd. 59/A, 34000 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Uludağ Eczanesi</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>
++90 212 450 16 00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>
+İncirtepe, Okurlar Cd. 59/A, 34000 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ECZANE SEVTAP</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>
++90 539 548 60 30</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>
+Orhan Gazi Mah. Mercedes Bulvarı No:41LH, 34538 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Gül Eczane</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>
++90 539 548 60 30</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>
+Orhan Gazi Mah. Mercedes Bulvarı No:41LH, 34538 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BURCU ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>
++90 539 548 60 30</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>
+Orhan Gazi Mah. Mercedes Bulvarı No:41LH, 34538 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Savra Eczanesi</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>
++90 212 557 57 75</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>
+Süleymaniye, Ispartakule Cd. NO:91/A, 34510 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Büyük Şifa Eczanesi</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>
+Pınar, 1240. Sk. No:9 D:1, 34517 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BARAM ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>
++90 212 620 00 55</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>
+İnönü, Mandıra Cd. No:41/A, 34510 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Esenyurt Eczanesi</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>
++90 212 853 41 17</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>
+Mehterçeşme, 1953. Sk. no:53/B, 34510 Beylikdüzü/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MEDİNE ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>
++90 212 620 00 33</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>
+Sultaniye, Balık Yolu Cd. No:11/A, 34517 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Eczane Yeni Üstün</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>
++90 212 689 08 26</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>
+Battalgazi, 34517 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Hocaoğlu Eczanesi</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>
+Örnek, 1351. Sk. No:2, 34517 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELGİN ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>
++90 540 620 11 33</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>
+Çınar, 1408. Sk. Numara:26 D:A, 34517 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Story Eczanesi</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>
++90 212 854 00 08</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>
+Cumhuriyet, Nazım Hikmet Blv. No:83, 34520 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Neşem Eczanesi</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>
++90 212 853 58 37</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>
+Mevlana, 34515 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DOĞA ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>
++90 212 852 15 75</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>
+Cumhuriyet, Nazım Hikmet Blv. No:81/B, 34515 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>STAR TOWERS ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>
++90 212 803 29 19</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>
+NECİP FAZIL KISAKÜREK MH. ÇARŞI SOK NO 1/A STAR TOWERS SİTESİ, 34522 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Edanur Eczanesi- Pharmacy- صيدلية - Aптека- داروخانه</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>
++90 212 853 35 89</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>
+Eda Nur Eczanesi, Mehterçeşme, Ufuk Cd. No: 72/A, 34515 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sayın Eczanesi</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>
++90 212 699 31 79</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>
+Esencan Hastanesi Karşısı, Fatih, 19 Mayıs Blv., 34513 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Egenur Eczanesi</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>
++90 212 880 00 34</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>
+Cumhuriyet, Hürriyet Cd. No:9/A, 34515 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Tülin Eczanesi</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>
++90 530 784 75 80</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>
+Yeşilkent, 1880. Sk. &amp; Alti File Market Sirasi Fly Garden Residence Alti File Market Sirasi 71-F, 34515 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2026-02-08 17:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Eczane Hep İstanbul</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>
++90 212 803 20 25</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>
+Zafer Mahallesi Adile Naşit Bulvarı No:58-AAH, 34513 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Ailem Eczanesi</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>
++90 212 803 20 25</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>
+Zafer Mahallesi Adile Naşit Bulvarı No:58-AAH, 34513 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ESRA ÖZTÜRK ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>
++90 212 803 20 25</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>
+Zafer Mahallesi Adile Naşit Bulvarı No:58-AAH, 34513 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Yusuf Eczanesi</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>
++90 212 690 73 99</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>
+Namık Kemal, Doğan Araslı Blv. No:37 D:B, 34513 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Kuzuyolu Eczanesi</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>
++90 212 690 73 99</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>
+Namık Kemal, Doğan Araslı Blv. No:37 D:B, 34513 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Enerji Eczanesi</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>
++90 212 690 73 99</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>
+Namık Kemal, Doğan Araslı Blv. No:37 D:B, 34513 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Oben Eczanesi</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>
++90 212 852 13 13</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>
+Beyzade Künefe Yanı, Cumhuriyet, Şehitler Cd. Bulvar Evleri, 34515 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ziynet Şule Eczanesi</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>
++90 212 689 06 36</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>
+Bağlarçeşme, 1208. Sk. No:4, 34522 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Yeni Derman ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>
++90 533 140 60 99</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>
+Akevler, 1076. Cd. No:6 D:1\10, 34513 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Limon Eczanesi</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>
++90 212 509 14 15</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>
+Yeşilkent, 1953. Sk. No: 6/A, 34510 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BAĞLARÇEŞME ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>
++90 212 628 42 00</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>
+Bağlarçeşme, Bağlar Çeşme Cad. no:18/D, 34517 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>İnci Eczanesi</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>
++90 212 505 59 59</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>
+Akevler, Pazaryolu Cd. 116B, 34513 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Eczane Erdal</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>
++90 212 596 11 63</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>
+Bağlarçeşme, Bağlar Çeşme Cad. No:39, 34517 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ATASOY ECZANESİ/ ATASOY PHARMACY</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>
++90 212 596 11 63</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>
+Bağlarçeşme, Bağlar Çeşme Cad. No:39, 34517 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Kayci Eczanesi</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>
++90 212 596 11 63</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>
+Bağlarçeşme, Bağlar Çeşme Cad. No:39, 34517 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Özcan Eczanesi</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>
++90 212 596 11 63</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>
+Bağlarçeşme, Bağlar Çeşme Cad. No:39, 34517 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Sueda eczanesi</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>
++90 212 596 11 63</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>
+Bağlarçeşme, Bağlar Çeşme Cad. No:39, 34517 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SERHAT ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>
++90 212 852 52 09</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>
+katipoğlu apt, Piri Reis, Nazım Hikmet Blv. no:62/d, 34515 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Talat Paşa Eczanesi</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>
++90 212 620 66 77</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>
+Talatpaşa, Fatih Sultan Mehmet Cd. No:52, 34513 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Can Eczanesi - Esenyurt</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>
++90 212 690 47 69</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>
+Saadetdere, Fevzi Çakmak Cd. No. 17/b, 34517 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Hafsa Eczanesi</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>
++90 532 120 53 96</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>
+Beyhill premium sitesi, Piri Reis, Necip Fazıl Kısakürek Cd, 34515 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>EVRENSEL ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>
++90 212 596 13 17</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>
+Çınar, 1408. Sk. NO:19/4, 34517 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>NEVİN ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>
++90 530 622 47 91</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>
+ZAFER MAHALLESİ 185. SOKAK BABACAN PREMİUM E BLOK NO: 4 GO, 34513 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>MERKEZ ECZANESİ ESENYURT</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>
++90 212 620 50 69</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>
+Pınar, 19 Mayıs Blv. NO 50A, 34513 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Balıkyolu Eczanesi</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>
++90 212 620 99 44</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>
+Süleymaniye mahallesi Hacibektaşi Veli caddesi, Bilal-i Habeş Camii Altı 131, D:E, 34513 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Ada Eczanesi</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>
++90 212 886 44 50</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>
+Atatürk, 2241.Sok No: 3/B, 34522 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ECZANE SAFİR PARK /Pharmacy / Apotheke / аптека / مقابل / ‎صيدلية /</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>
++90 212 843 30 70</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>
+Cumhuriyet, 1985. Sk. No:7/B, 34515 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ELİF ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>
++90 212 620 24 25</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>
+İncirtepe, 240. Sk. 43/A, 34510 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>İSTANBUL GÜNEŞ ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>
++90 212 590 04 00</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>
+Sultaniye, 322. Sk. No:2, 34510 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Bayraktar eczanesi</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>
++90 212 620 82 02</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>
+Süleymaniye, Ispartakule Cd. 8 A, 34510 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>En Merkez ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>
++90 212 806 25 10</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>
+Yenikent, Doğan Araslı Blv. 218C D:4, 34510 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Gültekin Eczanesi</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>
++90 212 691 78 15</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>
+İstiklal, Cumhuriyet Cd 22 / A, 34522 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Karlıdağ Eczanesi</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>
++90 552 362 58 52</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>
+YEŞİLKENT MAH. 2011 SOK. NO:16B/11 ESENYURT/İSTANBUL ÖZEL REYAP HASTANESİ KARŞISI INNOVIA 3 SİTESİ YANI Fİ TOWER SİTESİ DÜKKANLARI, 34515 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Şule Aydın Eczanesi</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>
++90 533 130 72 39</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>
+Yenikent, Aşık Şenlik Cd. 87/A, 34510 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Şen Eczanesi - Pharmacy</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>
++90 212 596 96 93</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>
+yakınında, Özel Esencan Hastanesi Acil Kapı Karşısı, Bağlarçeşme, 1168. Sk., 34517 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Melis Işık Eczanesi</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>
++90 212 628 42 61</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>
+Talatpaşa, Fatih Sultan Mehmet Cd., 34513 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Esenyurt Melike Eczanesi</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>
++90 212 664 84 98</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>
+Turgut Özal, Su Yolu Cd. 16/A, 34513 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Yeşilyurt Eczanesi</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>
++90 212 706 71 74</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>
+İncirtepe, Atalay Cd. No: 43B, 34510 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>İpekli Eczanesi / Pharmacy / Apotheke / аптека / مقابل / ‎صيدلية /</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>
++90 212 852 89 57</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>
+Crown Residence, Mevlana Mah. Hürriyet Cad, Site Karşısı İnnovia 1 No:16 D:E, 34515 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SERHATLI ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>
++90 552 454 43 34</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>
+Yeşilkent, 2011. Sk. No:16, 34325 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Mervenur Eczanesi</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>
++90 212 813 36 43</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>
+Koza Mahallesi 1638.Sokak Babacan Crown Deluxe Dükkan No: 1A/186, 34538 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Karahasan Eczanesi</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>
+Balıkyolu, Balina Cd., 34510 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Eczane Akın</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>
++90 212 620 06 35</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>
+Balıkyolu, Balina Cd., 34510 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>HEZEN ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>
++90 212 620 06 35</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>
+Üçevler, Urfalılar Cd. No:71 D:C, 34513 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>İpek Eczanesi Esenyurt</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>
++90 212 450 19 53</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>
+Radius Rezidans Fıstıkçıoğlu Baklavacı ve Akbank Yanı Tabela Durağı, Zafer, Doğan Araslı Blv., 34513 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>CADDE ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>
++90 212 423 19 13</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>
+Turgut Özal, Tonguç Baba Cd. No:18/A, 34513 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Lidya Eczanesi</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>
++90 212 758 18 28</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>
+Garden City, Fatih, Bahçe Yolu Cd. D:2 E1 Blok 28-30K, 34513 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Ardıçlı Eczanesi</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>
++90 212 450 19 76</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>
+Süleymaniye, 781. Sk., 34510 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>esenyurt ibnisina eczanesi</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>
++90 212 699 09 19</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>
+Örnek, Doğan Araslı Blv. No:199 D:a, 34517 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Tutku Eczanesi/Pharmacy Tutku</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>
++90 212 877 88 04</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>
+Koza, 1638. Sk. Garanti Koza Sitesi Burgaz 2A Dükkan 729, 34538 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Pozitif Eczanesi</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>
++90 212 853 21 21</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>
+Cumhuriyet, Nazım Hikmet Blv. No: 89/B, 34515 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>DOĞU ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>
++90 212 699 34 13</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>
+Devlet Hastanesi Karşısı Doğu Eczanesi, Pınar, 19 Mayıs Blv. 62/B, 34517 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Onur Eczanesi</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>
++90 551 897 99 38</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>
+Atatürk, 2202. Sk No: 8A, 34522 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>özüm eczanesi</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>
++90 212 614 98 57</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>
+Hürriyet mah, Adnan Kahveci Blv. no:84, 34517 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Bilimer Eczanesi</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>
+Bağlarçeşme, 1110. Sk. 3 B, 34517 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Önder Eczanesi</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>
++90 212 852 06 72</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>
+Bağlarçeşme, 1110. Sk. 3 B, 34517 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>SEDA ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>
++90 212 852 06 72</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>
+New Residence altı, Piri Reis, Nazım Hikmet Blv. No:52/D, 34515 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Eczane Akbatı</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>
++90 212 397 01 17</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>
+Koza, 1655. Sk, 34538 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Ayazma Eczanesi</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>
++90 212 689 93 91</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>
+Osmangazi, Büyük Ayazma Cd. No:34, 34522 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Özgür Eczanesi</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>
++90 212 813 87 77</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>
+Yenikent, Gazi Osman Paşa Cd. No:8 D:10 B, 34510 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Sevinç Şenel Özdemir Eczanesi</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>
++90 212 605 00 16</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>
+Esenkent, Süleyman Demirel Cd. No:4 D:C, 34510 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ECZANE PALALIOĞLU</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>
++90 212 649 63 34</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>
+Cumhuriyet, Nazım Hikmet Blv. 91/1 NO:24, 34515 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Kübra Eczanesi</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>
++90 212 689 09 99</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>
+Hürriyet, Pelikan Sk. No:13, 34522 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Müge Eczanesi</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>
++90 212 689 30 00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>
+İstiklal, 34517 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Lokman Hekim Eczanesi</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>
++90 212 450 60 62</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>
+Pınar, 1501. Sk. No: 2A, 34513 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Doruk Eczanesi</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>
++90 505 430 06 01</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>
+Yenikent Aile, Süleymaniye Mahallesi Bilal'i Habeş Cami Altı, Ispartakule Cd. No:194 D:1, 34510 Esenyurt/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>esenyurt/Istanbul</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2026-02-08 18:04</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3355,6 +3355,2847 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Sahil Eczanesi</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>
++90 552 577 44 66</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>
+Fenerbahçe, Operatör Cemil Topuzlu Cd. Emek Apt No:39, 34000 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Bahariye Cadde Eczanesi</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>
++90 216 550 53 02</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>
+Osmanağa, Gen. Asım Gündüz Caddesi No:17/C, 34734 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Simirna Eczanesi</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>
++90 216 602 10 32</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>
+Merdivenköy, Merdivenköy Cd No:29, 34732 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ELİZYA ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>
++90 216 602 10 32</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>
+Merdivenköy, Merdivenköy Cd No:29, 34732 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Bahariye Yavuz Eczanesi</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>
++90 216 602 10 32</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>
+Merdivenköy, Merdivenköy Cd No:29, 34732 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Bilen Eczanesi</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>
++90 216 602 10 32</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>
+Merdivenköy, Merdivenköy Cd No:29, 34732 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Caddebostan Nar Eczanesi - Ecz. Sibel Ozan</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>
++90 216 208 59 94</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>
+Kozyatağı, Kaya Sultan Sokağı 44/D, 34170 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Şifa Eczanesi</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>
++90 532 256 64 53</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>
+Dumlupınar, Mektep Sk. No: 16/D, 34720 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Yeni Kadıköy Eczanesi</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>
++90 216 515 65 15</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>
+Osmanağa, Reşitefendi Sok. No:70/A, 34714 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Tuğba Karaca Eczanesi</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>
++90 216 566 11 91</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>
+Merdivenköy, Şair Arşi Cd. No:11 A, 34732 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Sönmez Eczanesi</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>
++90 216 357 05 27</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>
+19 Mayıs, Şemsettin Günaltay Cd. No:188 D:A, 34736 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>HÜRRİYET ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>
++90 216 330 65 00</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>
+Rasimpaşa, Rıhtım Cd. 64/A, 34734 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Zeplin Eczanesi</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>
++90 533 925 34 00</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>
+Osmanağa, Serasker Cd. No:122/B, 34714 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Köşk Eczanesi</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>
++90 216 428 41 43</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>
+Hasanpaşa, Uzunçayır Cd. No:15, 34722 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Kadıköy Çarşı Eczanesi</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>
++90 216 338 48 38</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>
+Caferağa, Tavus Sk. 18/b, 34710 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>MERKEZ ECZANESİ (MERDİVENKÖY)</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>
++90 216 565 68 13</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>
+Merdivenköy, Ressam Salih Erimez Cad No:7C, 34732 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Moda Eczanesi</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>
++90 534 088 19 84</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>
+Caferağa, Moda Cd. 83B, 34710 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Akdeniz Eczanesi</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>
++90 534 088 19 84</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>
+Caferağa, Moda Cd. 83B, 34710 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Çarşı Zırhlıoğlu Eczanesi</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>
++90 534 088 19 84</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>
+Caferağa, Moda Cd. 83B, 34710 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Eczane Reva</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>
++90 534 088 19 84</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>
+Caferağa, Moda Cd. 83B, 34710 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>SERASKER CADDE ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>
++90 534 088 19 84</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>
+Caferağa, Moda Cd. 83B, 34710 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>eczane Serra</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>
++90 216 346 44 82</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>
+Rasimpaşa, Halitağa Cd. No:58, 34716 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Eczane Altıyol Merkez</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>
++90 216 347 42 85</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>
+Osmanağa, Söğütlüçeşme Cad. NO:70-72, 34714 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Kadıköy Eczanesi</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>
++90 543 899 92 44</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>
+19 Mayıs, Kaptan Arif Sok. no:72A, 34736 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Kent Eczanesi (Kent Plus Kadıköy)</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>
++90 216 969 42 48</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>
+KENT PLUS KADIKOY, Eğitim, Abdibey Sok. No:24/BH, 34722 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Evranos Eczanesi</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>
++90 216 566 54 57</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>
+Göztepe, Nadirağa Sk. No:11/A, 34730 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Kozmos Eczanesi</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>
++90 216 803 75 36</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>
+Caferağa, Leylek Sok. 20 B, 34710 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Mandarin Eczanesi</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>
++90 501 082 84 80</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>
+Fikirtepe Mah. Mandıra Cad. Mandarins No:11H, 34720 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Venüs Eczanesi</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>
++90 216 541 03 04</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>
+Fenerbahçe mh. Bağdat cd. Temel apt, no:146/A, 34726 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Lokum Eczanesi / Pharmacy / Apotheke / аптека</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>
++90 216 348 12 13</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>
+Fenerbahçe, Lalezar Sk. No:5/A, 34726 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>MERKEZ NUR ECZANESI</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>
++90 216 346 81 51</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>
+Osmanağa, Söğütlüçeşme Cad. No:67, 34715 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Zeytin Eczanesi</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>
+Rasimpaşa, Misak-ı Milli Sok. 81b, 34716 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Birsu Eczanesi</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>
++90 216 565 64 41</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>
+Caferağa, Moda Cd. 50/B, 34710 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Sağlık Eczanesi</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>
++90 216 348 54 54</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>
+Osmanağa, Kuşdili Cd. No:45/A, 34714 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>GÖKTÜRK ECZANESİ (GÖKTÜRK PHARMACY)</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>
++90 216 325 50 17</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>
+Acıbadem, Sarayardı Cd. No: 1/A, 34660 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>19 Mayıs Eczanesi</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>
++90 216 380 77 66</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>
+19 Mayıs, Hilmi Paşa Sk no:11B, 34736 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Moda Zırhlıoğlu Eczanesi</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>
++90 216 449 19 75</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>
+Caferağa, Moda Cd. No:193 D:1, 34710 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Emre eczanesi</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>
++90 216 567 02 50</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>
+uğur apartmanı, Merdivenköy, Merdivenköy Cd no : 27/A, 34752 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Halitağa Cadde Eczanesi</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>
++90 216 575 78 08</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>
+Rasimpaşa, Halitağa Cd. 36/A, 34716 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Haydarpaşa Anadolu Eczanesi</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>
++90 216 339 60 45</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>
+Koşuyolu, Dr. Eyüp Aksoy Cd. No:37/B, 34710 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>VİTAMİN ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>
++90 216 349 33 34</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>
+Zühtüpaşa, Recep Peker Cd. NO:32 D:2a, 34724 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Nar Ağacı Eczanesi</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>
++90 216 804 10 02</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>
+Feneryolu, Fahrettin Kerim Gökay Cd No:68 A, 34724 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Feneryolu Eczanesi</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>
++90 216 345 52 26</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>
+Feneryolu, Gazi Muhtar Paşa Sk. No:34, 34724 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Gülnur Eczanesi</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>
++90 216 411 48 45</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>
+19 Mayıs, Bayar Cd. no : 41 D:1b, 34736 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Ocak Eczanesi</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>
++90 216 449 96 27</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>
+Rasimpaşa, Rıhtım Cd. No:52, 34716 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Akın Eczanesi</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>
++90 216 338 66 64</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>
+Rasimpaşa, Söğütlüçeşme Cad. No:121, 34716 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Ayşe Lerzan Eczanesi</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>
++90 216 338 40 63</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>
+Osmanağa, Söğütlüçeşme Cad. No: 6/A, 34714 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Yeni Nesil Eczanesi</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>
++90 216 357 03 04</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>
+Caddebostan, Tanzimat Sk. No:13/AKadıköy, 34728 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Eczane Armanç</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>
++90 216 519 44 49</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>
+Fikirtepe, Rüzgar Sk. No:44/b-a, 34720 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Mungan Eczanesi</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>
++90 216 939 11 37</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>
+Kozyatağı, Kaya Sultan Sokağı No:21/b, 34742 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>AYBÜKE ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>
++90 216 339 78 82</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>
+Hasanpaşa, Arzu Sk. No:1, 34722, 34722 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Mühürdar Eczanesi</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>
++90 216 405 22 91</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>
+Caferağa, Mühürdar Cd. 48/A, 34710 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ECZANE Sabuncu</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>
++90 216 345 91 15</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>
+Caferağa, Nail Bey Sk. No:35, 34710 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Flora Eczanesi</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>
++90 216 416 27 79</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>
+19 Mayıs, Mercan Sk. No:5/A, 34736 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Dünya Eczanesi</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>
++90 216 567 93 02</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>
+Feneryolu, Yıldıray Sk. No:2/B, 34724 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>KIZILTOPRAK ECZANESİ TESİS TARİHİ 1880</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>
++90 216 336 16 01</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>
+Fenerbahçe, Bağdat Cad. 54/A, 34726 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Irmak Eczanesi</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>
++90 216 336 31 00</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>
+Zühtüpaşa, Recep Peker Cd. 34/A, 34724 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>NAUTILUS ECZANE</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>
++90 216 339 39 29</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>
+Tepe Nautilus, Acıbadem, Fatih Sk. No:1, 34718 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Eczane Bahariye</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>
++90 216 336 74 05</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>
+Caferağa, Sakız Gülü Sk. 31d, 34710 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>DOĞRUYOL ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>
++90 216 566 78 60</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>
+Feneryolu, Hüseyin Hüsnü Paşa Sk. No:3 D:B, 34724 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Lotus 14 eczanesi</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>
++90 216 450 50 40</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>
+Osmanağa, Gen. Asım Gündüz Caddesi no:16A, 34714 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Aktürk Eczanesi Göztepe</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>
++90 216 478 13 13</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>
+Göztepe, Rıdvanpaşa Sok. No:5/A, 34730 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Çiçek Eczanesi</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>
++90 216 369 00 19</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>
+Sahrayı Cedit, Kireçhaneler Sk. No:14/B, 34734 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Elmas Eczanesi</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>
++90 216 405 19 00</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>
+Rasimpaşa, Karakolhane Cd. No:80, 34716 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ECZANE YUNUS/PHARMACY YUNUS</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>
++90 216 565 94 88</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>
+ÖZEL Göztepe hastanesi, Merdivenköy caddesi, karşısı no:6/B, 34732 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Eczane Güven</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>
++90 216 347 36 66</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>
+Osmanağa, Talimhane Sk. No:5, 34714 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Seval Eczanesi</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>
++90 216 467 27 76</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>
+Sahrayı Cedit, İmam Ramiz Sokağı No:14, 34734 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Hızır Bey Eczanesi</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>
++90 507 661 71 85</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>
+HACI HASANBAŞ APT, Dumlupınar, Hızırbey Cd. no:207/B, 34720 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Taniş Eczanesi</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>
++90 216 411 23 35</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>
+19 Mayıs, Şemsettin Günaltay Cd. 20/A, 34736 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Melis Altınkaya Eczanesi</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>
++90 216 357 20 30</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>
+Fenerbahçe, Fuatpaşa Cd No:20, 34726 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Eczane Yurt</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>
++90 216 428 90 42</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>
+İbrahimağa Mah, Dr. Eyüp Aksoy Cd. 33/a, 34718 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Nurhan Eczanesi</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>
++90 216 346 69 89</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>
+Caferağa, Güneşlibahçe Sok. 49/A, 34710 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ECZANE MELİS</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>
++90 216 355 06 70</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>
+Kadıköy Söğütlüçeşme caddesi, Yavuztürk Sk. 37B, 34726 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Lale Eczanesi (Fatih Lale)</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>
++90 216 565 98 22</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>
+Feneryolu, Fahrettin Kerim Gökay Cd NO:136/A, 34724 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Metin Çiçek Eczanesi</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>
++90 216 345 52 22</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>
+Caferağa, Gen. Asım Gündüz Caddesi No:69/A, 34710 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>ÇALIŞ ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>
++90 216 566 58 00</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>
+Dumlupınar, Hızırbey Cd. 207-A, 34720 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Mavi Eczane</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>
++90 216 478 43 58</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>
+Caddebostan Opr.Dr. Cemil Topuzlu Caddesi No:109A (Plajyolu Sokak bitiminde, sağda. Cemil Topuzlu caddesi üzerinde, 34728 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Azim Eczanesi</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>
++90 216 336 61 63</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>
+Osmanağa, Süleyman Paşa Sk. No:6, 34714 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Kadıköy Merkez Eczanesi</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>
++90 534 648 20 80</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>
+Caferağa, Muvakkıthane Cd. No:3, 34710 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Acıbadem Cadde Eczanesi</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>
++90 216 784 69 98</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>
+Acıbadem, Acıbadem Cd. no:47 A, 34718 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Kadir Eczanesi</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>
++90 216 629 55 80</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>
+Göztepe, Tütüncü Mehmet Efendi Cd. No:55C, 34730 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Sokak Eczanesi</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>
++90 216 337 67 37</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>
+Rasimpaşa, Karakolhane Cd. No:33/A, 34716 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Şebnem Eczanesi</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>
++90 216 325 88 98</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>
+Hasanpaşa, İkbaliye Sk., 34722 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Nihan Er Eczanesi Pharmacy</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>
++90 216 551 00 06</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>
+Fikirtepe, Mandıra Cd. No: 34/B, 34720 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ECZANE TERMİNAL KADIKÖY</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>
++90 216 519 34 84</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>
+Hasanpaşa Mah. Kurbağalıdere Cad, Terminal Kadıköy'ün içerisinde, Marmaraya doğru giderken, Kahve Dünyası'nın yanında, Terminal No:2/8 İç Kapı No:3, 34722 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Şeniz Eczanesi</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>
++90 216 566 10 06</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>
+Merdivenköy, Hızır Reis Sk., 34732 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Derman Eczanesi</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>
++90 216 550 60 02</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>
+Rasimpaşa, Nemlizade Sk. 68/A, 34716 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Yeni İstanbul Eczanesi</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>
++90 216 416 61 71</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>
+Sahrayı Cedit, Bayar Cd. No:5 D:1A, 34734 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Sevda eczanesi</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>
++90 216 514 60 79</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>
+19 Mayıs, Gürsoylu Sokağı no:32 D:34b, 34744 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Ezel Eczanesi</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>
++90 216 338 07 02</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>
+Zühtüpaşa, Itri Dede Sok. 23/A, 34724 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>DURAK ECZANESİ KADIKÖY</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>
++90 534 662 81 97</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>
+Rasimpaşa Mah Rıhtım Cad N0:30 Sakıp Bey Apt Zemin Kat:1, 34716 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Sarayardı Eczanesi</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>
++90 216 428 54 80</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>
+Acıbadem, Sarayardı Cd. No:5 D:C, 34660 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>VERDA ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>
++90 216 337 19 94</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>
+Caferağa, Gen. Asım Gündüz Caddesi NO:104/A, 34710 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Lacivert Eczanesi</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>
++90 533 613 21 83</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>
+Feneryolu, Bağdat Cad. No:93, 34710 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Pınar Deniz Eczanesi</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>
++90 546 199 11 41</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>
+TEKNİK YAPI CONCORD İSTANBUL, Dumlupınar, Yumurtacı Abdi Bey Cd. C BLOK, 34730 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Toprak Eczanesi</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>
++90 541 899 97 99</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>
+Merdivenköy Mahallesi Yumurtacı Abdi Bey Cad. B Blok No:5 Dikyol sok. No.2A (Business Istanbul) B Blok Daire No:5, 34732 Kadıköy, Türkiye</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Cumhuriyet Eczanesi</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>
++90 216 909 34 23</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>
+Göztepe, Tütüncü Mehmet Efendi Cd. No:13 D:A, 34730 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Naturel Eczanesi</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>
++90 216 909 34 23</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>
+Göztepe, Tütüncü Mehmet Efendi Cd. No:13 D:A, 34730 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>2026-02-09 01:32</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6196,6 +6196,383 @@
         </is>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Boğaziçi Eczanesi</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>
++90 538 357 12 52</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>
+Erenköy, General Necmi Ökten Sk. No: 14/A, 34738 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>2026-02-10 01:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Sahrayıcedit Eczanesi</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>
++90 216 368 92 22</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>
+Sahrayı Cedit, Hafız İmam Sk. No:1 /1B, 34734 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>2026-02-10 01:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Suadiye Eczanesi</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>
++90 216 380 40 40</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>
+Suadiye, Ayşeçavuş Cd No:7/C, 34740 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>2026-02-10 01:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Eczane Halk</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>
++90 216 345 72 83</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>
+Rasimpaşa, Karakolhane Cd. No:11, 34716 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>2026-02-10 01:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Aile Eczanesi</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>
++90 216 345 72 83</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>
+Rasimpaşa, Karakolhane Cd. No:11, 34716 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>2026-02-10 01:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Utku Eczanesi</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>
++90 216 416 79 64</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>
+19 Mayıs, Toktaş Sk. No:1 D:1 D, 34742 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>2026-02-10 01:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Kaptan Eczanesi</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>
++90 216 416 79 64</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>
+19 Mayıs, Toktaş Sk. No:1 D:1 D, 34742 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>2026-02-10 01:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Tılsım Eczanesi</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>
++90 216 416 79 64</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>
+19 Mayıs, Toktaş Sk. No:1 D:1 D, 34742 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>2026-02-10 01:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>İdeal Eczanesi Kadıköy</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>
++90 216 416 79 64</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>
+19 Mayıs, Toktaş Sk. No:1 D:1 D, 34742 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>2026-02-10 01:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Cansever Eczanesi</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>
++90 216 347 00 92</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>
+Caferağa, Moda Cd. No:21/B, 34710 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>2026-02-10 01:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Dalyan Eczanesi</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>
++90 216 359 86 06</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>
+Fenerbahçe, Operatör Cemil Topuzlu Cd. No:4 F Blok, 34726 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>2026-02-10 01:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Buket Eczanesi</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>
++90 216 360 32 92</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>
+Merdivenköy, Tekkealtı Sk. Nuribey Apt. 4/B, 34732 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>2026-02-10 01:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>PERA ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>
++90 216 766 11 53</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>
+Erenköy, Ethemefendi Caddesi No:26, 34738 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>2026-02-10 01:51</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E212"/>
+  <dimension ref="A1:E222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6573,6 +6573,296 @@
         </is>
       </c>
     </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Soley Eczanesi</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>
++90 506 598 90 50</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>
+Bostancı, Kozyatağı, Seda Sk. No:11/A, 34742 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2026-02-11 01:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>CADDE SAĞLIK ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>
++90 216 356 00 85</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>
+CADDE SAĞLIK ECZANESİ, Caddebostan, Bağdat Cad. NO:275 D:1, 34728 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2026-02-11 01:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Alp Eczanesi</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>
++90 546 128 82 46</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>
+Erenköy, Kamiller Sokağı No:5 D:B, 34738 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2026-02-11 01:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Karaca Eczanesi</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>
++90 216 748 08 88</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>
+19 Mayıs, Oral Sk. No: 1/B, 34736 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>2026-02-11 01:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>GÖKÇEN ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>
++90 216 629 86 06</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>
+Dumlupınar, Yazıcılar Sk., 34720 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2026-02-11 01:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Eczane Ertem</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>
++90 216 338 84 98</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>
+Caferağa, Moda Cd. No:112, 34710 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2026-02-11 01:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Eczane Nihal</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>
++90 216 368 42 14</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>
+19 Mayıs, Sinan Ercan Cd. No:30 C, 34736 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>2026-02-11 01:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Eczane Saye</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>
++90 216 360 85 93</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>
+19 Mayıs, Yıldız Sk. No:15/B, 34736 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2026-02-11 01:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Güleç Eczanesi</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>
++90 216 909 26 96</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>
+19 Mayıs, Yıldız Sk. No:18/B, 34736 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2026-02-11 01:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Ergenekon Eczanesi</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>
++90 216 414 65 83</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>
+Zühtüpaşa, Kördere Sok. 22/A, 34724 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2026-02-11 01:47</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E222"/>
+  <dimension ref="A1:E227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6863,6 +6863,151 @@
         </is>
       </c>
     </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>ECZANE Vatan</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>
++90 216 565 96 71</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>
+Dumlupınar Mh.şahika sok.no:1/C FİKİRTEPE, 34720 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2026-02-12 01:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Pelikan Eczanesi</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>
++90 530 765 82 94</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>
+Göztepe, Tütüncü Mehmet Efendi Cd. 107/B, 34730 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2026-02-12 01:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Ecem Ramiz Eczanesi</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>
++90 216 337 09 19</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>
+Göztepe, Nadirağa Sk. No:5-7E D:F, 34730 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2026-02-12 01:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Caddebostan Plus Eczanesi</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>
++90 545 350 10 00</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>
+Caddebostan, Ömer Paşa Sk. no:1, 34728 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2026-02-12 01:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Kekik Eczanesi</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>
++90 216 356 78 91</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>
+Atatürk Caddesi Makbule Apt. No.37/A Sahrayıcedit, 34734 İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2026-02-12 01:27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E227"/>
+  <dimension ref="A1:E228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7008,6 +7008,35 @@
         </is>
       </c>
     </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Elit Eczanesi</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>
++90 216 363 20 20</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>
+Göztepe, Bağdat Cad. No:209/A, 34730 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2026-02-14 01:22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E228"/>
+  <dimension ref="A1:E230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7037,6 +7037,63 @@
         </is>
       </c>
     </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Aybüke İrem Eczanesi</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>
++90 216 567 17 57</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>
+Feneryolu Mah, Göztepe, Fahrettin Kerim Gökay Cd NO:138A, 34724 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2026-02-15 01:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Nihan Eczanesi</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>
+Merdivenköy, Dr. Erkin Cd. No:10, 34732 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2026-02-15 01:30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E230"/>
+  <dimension ref="A1:E250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7094,6 +7094,586 @@
         </is>
       </c>
     </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Eczane Ecrin</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>
++90 216 566 20 21</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>
+ÖZEL GÖZTEPE MEDİCALPARK HASTANESİ YANI, Merdivenköy, Nisan Sk. NO:20/A, 34732 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2026-02-16 01:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Bostancı Eczanesi</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>
++90 850 677 5616</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>
+Bostancı, Prof. Dr. Ali Nihat Tarlan Cd No:54/B, 34744 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>2026-02-16 01:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Eczane Coşan</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>
++90 216 357 19 19</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>
+Fenerbahçe, Tevfik Paşa Sk. No:2 D:1C, 34726 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2026-02-16 01:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Eczane Ülkü</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>
++90 216 356 49 64</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>
+Sahrayı Cedit, İnönü Cd. 6/B, 34734 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>2026-02-16 01:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Fenerbahçe Beyaz Eczane</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>
++90 216 345 08 11</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>
+Fenerbahçe, Fener Kalamış Cd. No:92-94 / D, 34726 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2026-02-16 01:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Nazan Eczane</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>
++90 216 411 84 82</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>
+19 Mayıs, Şemsettin Günaltay Cd. No:174, 34736 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2026-02-16 01:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Eczane İskele</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>
++90 216 336 61 10</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>
+Osmanağa, Rıhtım Cd. No:2, 34714 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2026-02-16 01:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Eczane Mısra Kan</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>
++90 216 385 00 96</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>
+Erenköy, Şemsettin Günaltay Cd. no:173/c, 34738 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>2026-02-16 01:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>İntepe Eczanesi</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>
++90 216 445 07 26</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>
+Kozyatağı, Korkut Sk. 6B, 34742 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>2026-02-16 01:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Ece Bayram Eczanesi</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>
++90 216 629 48 80</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>
+Feneryolu, Bağdat Cad. No:71A, 34724 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2026-02-16 01:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>HEKİMOĞLU ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>
++90 216 385 85 87</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>
+Erenköy, Telli Kavak Sk. No:1, 34334 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2026-02-16 01:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>ŞEYMA CANER ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>
++90 216 784 11 93</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>
+Fenerbahçe, Fener Kalamış Cd. No:67 D:1B, 34726 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2026-02-16 01:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Pırlanta eczane</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>
++90 216 771 00 00</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>
+Dumlupınar Mahallesi, Hızırbey Cd, Dumlupınar, Adagül Sk. No:4, 34720, Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>2026-02-16 01:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Yalçın Eczanesi Feneryolu</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>
++90 216 338 67 29</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>
+Feneryolu, Fenerbahçe, Bağdat Cad. No:119/B, 34726 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>2026-02-16 01:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Burkay Eczanesi</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>
++90 216 567 22 22</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>
+Mustafa Kaya Sokağı, Göztepe, Fahrettin Kerim Gökay Cd no:18/b, 34730 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>2026-02-16 01:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Emine Eczanesi</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>
++90 216 386 04 89</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>
+Erenköy, Çoban Yıldızı Sokağı no12/b, 34738 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>2026-02-16 01:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Nova Eczanesi</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>
++90 216 766 01 94</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>
+Suadiye, Halay Sk. No:12/B, 34740 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>2026-02-16 01:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Vega Eczanesi Kadıköy</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>
++90 532 668 83 42</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>
+Göztepe, Ömer Paşa Sk. UZAY APT NO27/A, 34730 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2026-02-16 01:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>LAGÜN ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>
++90 216 999 00 93</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>
+Göztepe, Tepegöz Sk. NO:5/A, 34730 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2026-02-16 01:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>ONİKİLER ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>
++90 216 567 62 58</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>
+Merdivenköy, Dr. Erkin Cd. 58/A, 34720 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2026-02-16 01:26</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E250"/>
+  <dimension ref="A1:E252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7674,6 +7674,64 @@
         </is>
       </c>
     </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>MEYDAN ECZANESİ-PHARMACY</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>
++90 501 240 22 33</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>
+Osmanağa, Söğütlüçeşme Cad. No:57, 34714 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2026-02-17 01:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Aktaş Eczanesi</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>
++90 216 567 24 42</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>
+Merdivenköy, Dr. Erkin Cd. Sefa Apt. 16/18-a, 34732 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2026-02-17 01:25</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E252"/>
+  <dimension ref="A1:E253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7732,6 +7732,35 @@
         </is>
       </c>
     </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>ACIBADEM ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>
++90 216 545 58 45</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>
+Acıbadem, Mustafa Bey Sk. No:1/A, 34718 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>2026-02-18 01:27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E253"/>
+  <dimension ref="A1:E254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7761,6 +7761,35 @@
         </is>
       </c>
     </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Gümüş Eczanesi</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>
++90 216 330 41 82</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>
+Feneryolu, Gazi Muhtar Paşa Sk. No:59 D:I, 34726 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2026-02-19 01:26</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E254"/>
+  <dimension ref="A1:E255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7790,6 +7790,35 @@
         </is>
       </c>
     </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Aslı Eczanesi</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>
++90 216 550 04 91</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>
+Eğitim, Nahitbey Sok. 51/A, 34722 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2026-02-20 01:22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E255"/>
+  <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7819,6 +7819,64 @@
         </is>
       </c>
     </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Alfa Eczanesi</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>
++90 216 339 43 39</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>
+Koşuyolu, Koşuyolu Cd. No:2/A, 34718 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>2026-02-21 01:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>ECZANE TEKDEMİR</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>
++90 216 565 35 61</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>
+Merdivenköy, Şahika Sk. 33/A, 34732 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>2026-02-21 01:20</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E257"/>
+  <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7877,6 +7877,35 @@
         </is>
       </c>
     </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>MODA SAHİL ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>
++90 533 022 94 91</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>
+Caferağa, Ferit Tek Sok. NO60/C, 34710 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>2026-02-22 01:25</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E258"/>
+  <dimension ref="A1:E260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7906,6 +7906,64 @@
         </is>
       </c>
     </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Asil Eczanesi</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>
++90 546 960 61 77</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>
+Feneryolu, Feneryolu Sokağı No:20/C-D, 34724 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>2026-02-23 01:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>ENES UYGUN ECZANESİ</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>
++90 216 361 09 27</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>
+Kozyatağı, Kaya Sultan Sokağı 28/A, 34742 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>2026-02-23 01:25</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E260"/>
+  <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7964,6 +7964,35 @@
         </is>
       </c>
     </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Cadde 360 Eczanesi</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>
++90 216 358 09 68</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>
+Caddebostan, Bağdat Cad. 327/A, 34728 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>2026-02-24 01:24</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E261"/>
+  <dimension ref="A1:E262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7993,6 +7993,35 @@
         </is>
       </c>
     </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Kare Eczanesi</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>
++90 533 372 40 39</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>
+Fikirtepe, Barış Sokak No:7AF, 34720 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2026-02-25 01:30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E262"/>
+  <dimension ref="A1:E263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8022,6 +8022,35 @@
         </is>
       </c>
     </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Kozyatağı Eczanesi</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>
++90 216 747 30 33</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>
+şemsettin günaltay no:114/B Ayşekadın, Kozyatağı, Şemsettin Günaltay Cd. no:114/B, 34742 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>2026-02-26 01:23</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E263"/>
+  <dimension ref="A1:E265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8051,6 +8051,64 @@
         </is>
       </c>
     </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Ömerpaşa Eczanesi</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>
++90 533 724 06 74</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>
+Sahrayı Cedit, Ferit Bey Sk. no:6/c, 34744 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>2026-02-28 01:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Aqua Eczanesi</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>
++90 216 771 19 98</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>
+Caddebostan, Operatör Cemil Topuzlu Cd. No:139/A, 34728 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>2026-02-28 01:15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E265"/>
+  <dimension ref="A1:E267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8109,6 +8109,64 @@
         </is>
       </c>
     </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Altanlar Eczanesi</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>
++90 216 410 44 06</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>
+Suadiye, Ayşeçavuş Cd 21/A, 34740 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>2026-03-01 01:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Selin Eczanesi</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>
++90 542 108 47 24</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>
+Dumlupınar, Adagül Sk. Köseoğlu Apt No:2/B, 34720 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2026-03-01 01:43</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/leads_output.xlsx
+++ b/leads_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E267"/>
+  <dimension ref="A1:E269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8167,6 +8167,64 @@
         </is>
       </c>
     </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Atlas Eczanesi</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>
++90 216 771 10 12</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>
+Sahrayı Cedit, İnönü Cd. No:14/A, 34734 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>2026-03-02 01:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Gülerman Eczanesi</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>
++90 216 467 12 38</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>
+Erenköy, Erenköy İstasyon Cd. No:11 C, 34738 Kadıköy/İstanbul, Türkiye</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Kadikoy/Istanbul</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2026-03-02 01:23</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
